--- a/WakilRecouvrement/WakilRecouvrement.Web/Uploads/LOT_11_POSTE4.xlsx
+++ b/WakilRecouvrement/WakilRecouvrement.Web/Uploads/LOT_11_POSTE4.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marwen\Desktop\Les lots\Lot moez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Les lots\Lot moez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{717C63F1-F265-4759-99B0-444AE5FE65E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
@@ -2820,11 +2819,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
